--- a/Doc/ExcelConfig/Datas/道具/ItemEquipConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/道具/ItemEquipConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="149">
   <si>
     <t>##</t>
   </si>
@@ -41,9 +41,6 @@
     </r>
   </si>
   <si>
-    <t>BindHeroId</t>
-  </si>
-  <si>
     <t>EquipSlot</t>
   </si>
   <si>
@@ -74,6 +71,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>EEnum.EEquipSolt</t>
+  </si>
+  <si>
     <t>(list#sep=|),int</t>
   </si>
   <si>
@@ -89,9 +89,6 @@
     <t>道具名称</t>
   </si>
   <si>
-    <t>穿戴英雄</t>
-  </si>
-  <si>
     <t>穿戴部位</t>
   </si>
   <si>
@@ -110,28 +107,379 @@
     <t>套装Buff效果</t>
   </si>
   <si>
-    <t>史莱姆装备1</t>
-  </si>
-  <si>
-    <t>史莱姆装备2</t>
-  </si>
-  <si>
-    <t>史莱姆装备3</t>
-  </si>
-  <si>
-    <t>史莱姆装备4</t>
+    <t>亚巴顿符石</t>
+  </si>
+  <si>
+    <t>Scepter</t>
+  </si>
+  <si>
+    <t>孽主符石</t>
+  </si>
+  <si>
+    <t>炼金符石</t>
+  </si>
+  <si>
+    <t>远古冰魄符石</t>
+  </si>
+  <si>
+    <t>敌法师符石</t>
   </si>
   <si>
     <t>5001001|22</t>
   </si>
   <si>
-    <t>史莱姆装备5</t>
-  </si>
-  <si>
-    <t>史莱姆装备6</t>
-  </si>
-  <si>
-    <t>史莱姆装备7</t>
+    <t>天穹守望者符石</t>
+  </si>
+  <si>
+    <t>斧王符石</t>
+  </si>
+  <si>
+    <t>祸乱之源符石</t>
+  </si>
+  <si>
+    <t>蝙蝠骑士符石</t>
+  </si>
+  <si>
+    <t>兽王符石</t>
+  </si>
+  <si>
+    <t>血魔符石</t>
+  </si>
+  <si>
+    <t>赏金猎人符石</t>
+  </si>
+  <si>
+    <t>熊猫酒仙符石</t>
+  </si>
+  <si>
+    <t>刚被兽符石</t>
+  </si>
+  <si>
+    <t>蜘蛛符石</t>
+  </si>
+  <si>
+    <t>半人马战行者符石</t>
+  </si>
+  <si>
+    <t>混沌骑士符石</t>
+  </si>
+  <si>
+    <t>陈符石</t>
+  </si>
+  <si>
+    <t>克林克兹符石</t>
+  </si>
+  <si>
+    <t>水晶室女符石</t>
+  </si>
+  <si>
+    <t>黑暗贤者符石</t>
+  </si>
+  <si>
+    <t>邪影芳灵符石</t>
+  </si>
+  <si>
+    <t>破晓辰星符石</t>
+  </si>
+  <si>
+    <t>戴泽符石</t>
+  </si>
+  <si>
+    <t>死亡先知符石</t>
+  </si>
+  <si>
+    <t>干扰者符石</t>
+  </si>
+  <si>
+    <t>末日符石</t>
+  </si>
+  <si>
+    <t>龙骑士符石</t>
+  </si>
+  <si>
+    <t>卓尔游侠符石</t>
+  </si>
+  <si>
+    <t>大地之灵符石</t>
+  </si>
+  <si>
+    <t>撼地者符石</t>
+  </si>
+  <si>
+    <t>上古巨神符石</t>
+  </si>
+  <si>
+    <t>灰烬之灵符石</t>
+  </si>
+  <si>
+    <t>魅惑魔女符石</t>
+  </si>
+  <si>
+    <t>谜团符石</t>
+  </si>
+  <si>
+    <t>JB脸符石</t>
+  </si>
+  <si>
+    <t>先知符石</t>
+  </si>
+  <si>
+    <t>天涯墨客符石</t>
+  </si>
+  <si>
+    <t>矮人直升机符石</t>
+  </si>
+  <si>
+    <t>小松鼠符石</t>
+  </si>
+  <si>
+    <t>神灵武士符石</t>
+  </si>
+  <si>
+    <t>祈求着符石</t>
+  </si>
+  <si>
+    <t>双头龙符石</t>
+  </si>
+  <si>
+    <t>主宰符石</t>
+  </si>
+  <si>
+    <t>光法符石</t>
+  </si>
+  <si>
+    <t>船长符石</t>
+  </si>
+  <si>
+    <t>军团符石</t>
+  </si>
+  <si>
+    <t>拉希克符石</t>
+  </si>
+  <si>
+    <t>巫妖符石</t>
+  </si>
+  <si>
+    <t>小狗符石</t>
+  </si>
+  <si>
+    <t>莉娜符石</t>
+  </si>
+  <si>
+    <t>莱恩符石</t>
+  </si>
+  <si>
+    <t>德鲁伊符石</t>
+  </si>
+  <si>
+    <t>露娜符石</t>
+  </si>
+  <si>
+    <t>狼人符石</t>
+  </si>
+  <si>
+    <t>马格纳斯符石</t>
+  </si>
+  <si>
+    <t>玛西符石</t>
+  </si>
+  <si>
+    <t>马尔斯符石</t>
+  </si>
+  <si>
+    <t>美杜莎符石</t>
+  </si>
+  <si>
+    <t>米波符石</t>
+  </si>
+  <si>
+    <t>米拉娜符石</t>
+  </si>
+  <si>
+    <t>大圣符石</t>
+  </si>
+  <si>
+    <t>水人符石</t>
+  </si>
+  <si>
+    <t>娜迦海妖符石</t>
+  </si>
+  <si>
+    <t>瘟疫法师符石</t>
+  </si>
+  <si>
+    <t>影魔符石</t>
+  </si>
+  <si>
+    <t>暗夜魔王符石</t>
+  </si>
+  <si>
+    <t>小强符石</t>
+  </si>
+  <si>
+    <t>黑鸟符石</t>
+  </si>
+  <si>
+    <t>食人魔魔法师符石</t>
+  </si>
+  <si>
+    <t>全能骑士符石</t>
+  </si>
+  <si>
+    <t>神谕者符石</t>
+  </si>
+  <si>
+    <t>石鳞剑士符石</t>
+  </si>
+  <si>
+    <t>幻影刺客符石</t>
+  </si>
+  <si>
+    <t>幻影长矛手符石</t>
+  </si>
+  <si>
+    <t>凤凰符石</t>
+  </si>
+  <si>
+    <t>獸符石</t>
+  </si>
+  <si>
+    <t>帕克符石</t>
+  </si>
+  <si>
+    <t>屠夫符石</t>
+  </si>
+  <si>
+    <t>帕格纳符石</t>
+  </si>
+  <si>
+    <t>痛苦女王符石</t>
+  </si>
+  <si>
+    <t>发条地精符石</t>
+  </si>
+  <si>
+    <t>电棍符石</t>
+  </si>
+  <si>
+    <t>力丸符石</t>
+  </si>
+  <si>
+    <t>拉比克符石</t>
+  </si>
+  <si>
+    <t>沙王符石</t>
+  </si>
+  <si>
+    <t>暗影恶魔符石</t>
+  </si>
+  <si>
+    <t>小Y符石</t>
+  </si>
+  <si>
+    <t>伐木机符石</t>
+  </si>
+  <si>
+    <t>沉默术士符石</t>
+  </si>
+  <si>
+    <t>骷髅王符石</t>
+  </si>
+  <si>
+    <t>天怒法师符石</t>
+  </si>
+  <si>
+    <t>斯拉达符石</t>
+  </si>
+  <si>
+    <t>斯拉克符石</t>
+  </si>
+  <si>
+    <t>电炎绝手符石</t>
+  </si>
+  <si>
+    <t>狙击手符石</t>
+  </si>
+  <si>
+    <t>幽鬼符石</t>
+  </si>
+  <si>
+    <t>裂魂人符石</t>
+  </si>
+  <si>
+    <t>风暴之灵符石</t>
+  </si>
+  <si>
+    <t>斯文符石</t>
+  </si>
+  <si>
+    <t>地精工程师符石</t>
+  </si>
+  <si>
+    <t>圣堂刺客符石</t>
+  </si>
+  <si>
+    <t>灵魂守卫符石</t>
+  </si>
+  <si>
+    <t>潮汐猎人符石</t>
+  </si>
+  <si>
+    <t>修补匠符石</t>
+  </si>
+  <si>
+    <t>小小符石</t>
+  </si>
+  <si>
+    <t>大树符石</t>
+  </si>
+  <si>
+    <t>巨魔战将符石</t>
+  </si>
+  <si>
+    <t>海民符石</t>
+  </si>
+  <si>
+    <t>不朽尸王符石</t>
+  </si>
+  <si>
+    <t>熊战士符石</t>
+  </si>
+  <si>
+    <t>复仇之魂符石</t>
+  </si>
+  <si>
+    <t>剧毒术士符石</t>
+  </si>
+  <si>
+    <t>冥界亚龙符石</t>
+  </si>
+  <si>
+    <t>维萨吉符石</t>
+  </si>
+  <si>
+    <t>虚无之灵符石</t>
+  </si>
+  <si>
+    <t>术士符石</t>
+  </si>
+  <si>
+    <t>编织者符石</t>
+  </si>
+  <si>
+    <t>风行者符石</t>
+  </si>
+  <si>
+    <t>冰霜巨龙符石</t>
+  </si>
+  <si>
+    <t>艾欧符石</t>
+  </si>
+  <si>
+    <t>巫医符石</t>
+  </si>
+  <si>
+    <t>宙斯符石</t>
   </si>
 </sst>
 </file>
@@ -144,7 +492,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +519,13 @@
       <color rgb="FF00323C"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -609,10 +964,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,7 +976,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,25 +985,22 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -660,98 +1012,101 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyAlignment="1"/>
@@ -761,6 +1116,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -768,22 +1127,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1107,27 +1465,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:N127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="6.625" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
-    <col min="5" max="5" width="9.125" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="6.75" customWidth="1"/>
-    <col min="8" max="8" width="9.375" customWidth="1"/>
-    <col min="9" max="9" width="9.25" customWidth="1"/>
-    <col min="10" max="10" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="17.2416666666667" customWidth="1"/>
+    <col min="4" max="4" width="20.575" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
+    <col min="6" max="6" width="6.75" customWidth="1"/>
+    <col min="7" max="7" width="9.375" customWidth="1"/>
+    <col min="8" max="8" width="9.25" customWidth="1"/>
+    <col min="9" max="9" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1135,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -1147,233 +1504,1584 @@
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:9">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="11"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:10">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="12" t="s">
+      <c r="H2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="13" t="s">
+    </row>
+    <row r="3" s="2" customFormat="1" ht="17.5" spans="1:9">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="17.25" spans="1:10">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="H3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:10">
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="14" t="s">
+    </row>
+    <row r="5" ht="15.5" spans="2:7">
+      <c r="B5" s="11">
+        <v>20004</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="8">
-        <v>10004</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="9">
-        <v>10005</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="4"/>
+    </row>
+    <row r="6" ht="15.5" spans="2:7">
+      <c r="B6" s="13">
+        <v>20005</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="8">
-        <v>10006</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="9">
-        <v>10007</v>
-      </c>
-      <c r="C8" s="8" t="s">
+    </row>
+    <row r="7" ht="15.5" spans="2:6">
+      <c r="B7" s="11">
+        <v>20006</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="8">
-        <v>10008</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="D7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" ht="15.5" spans="2:6">
+      <c r="B8" s="13">
+        <v>20007</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F9" t="s">
+      <c r="D8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" ht="15.5" spans="2:6">
+      <c r="B9" s="11">
+        <v>20008</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="9">
-        <v>10009</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="D9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="8">
-        <v>10010</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" ht="15.5" spans="2:6">
+      <c r="B10" s="13">
+        <v>20009</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="9">
-        <v>10011</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="D10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" ht="15.5" spans="2:6">
+      <c r="B11" s="11">
+        <v>20010</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="J12">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="I13">
-        <v>3</v>
-      </c>
-      <c r="J13">
-        <v>1002</v>
-      </c>
-      <c r="O13" s="15"/>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="9">
-        <v>10013</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="8">
-        <v>10014</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="9">
-        <v>10015</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="8">
-        <v>10016</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="9">
-        <v>10017</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="6:9">
-      <c r="F25" s="10"/>
-      <c r="I25" s="13"/>
+      <c r="D11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" ht="15.5" spans="2:6">
+      <c r="B12" s="13">
+        <v>20011</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" ht="15.5" spans="2:14">
+      <c r="B13" s="11">
+        <v>20012</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="N13" s="16"/>
+    </row>
+    <row r="14" ht="15.5" spans="2:6">
+      <c r="B14" s="13">
+        <v>20013</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" ht="15.5" spans="2:6">
+      <c r="B15" s="11">
+        <v>20014</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" ht="15.5" spans="2:6">
+      <c r="B16" s="13">
+        <v>20015</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" ht="15.5" spans="2:6">
+      <c r="B17" s="11">
+        <v>20016</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" ht="15.5" spans="2:6">
+      <c r="B18" s="13">
+        <v>20017</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" ht="15.5" spans="2:6">
+      <c r="B19" s="11">
+        <v>20018</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" ht="15.5" spans="2:6">
+      <c r="B20" s="13">
+        <v>20019</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" ht="15.5" spans="2:6">
+      <c r="B21" s="11">
+        <v>20020</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" ht="15.5" spans="2:6">
+      <c r="B22" s="13">
+        <v>20021</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" ht="15.5" spans="2:6">
+      <c r="B23" s="11">
+        <v>20022</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" ht="15.5" spans="2:6">
+      <c r="B24" s="13">
+        <v>20023</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" ht="15.5" spans="2:8">
+      <c r="B25" s="11">
+        <v>20024</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="4"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" ht="15.5" spans="2:6">
+      <c r="B26" s="13">
+        <v>20025</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" ht="15.5" spans="2:6">
+      <c r="B27" s="11">
+        <v>20026</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" ht="15.5" spans="2:6">
+      <c r="B28" s="13">
+        <v>20027</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" ht="15.5" spans="2:6">
+      <c r="B29" s="11">
+        <v>20028</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" ht="15.5" spans="2:6">
+      <c r="B30" s="13">
+        <v>20029</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" ht="15.5" spans="2:6">
+      <c r="B31" s="11">
+        <v>20030</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" ht="15.5" spans="2:6">
+      <c r="B32" s="13">
+        <v>20031</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" ht="15.5" spans="2:6">
+      <c r="B33" s="11">
+        <v>20032</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" ht="15.5" spans="2:6">
+      <c r="B34" s="13">
+        <v>20033</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" ht="15.5" spans="2:6">
+      <c r="B35" s="11">
+        <v>20034</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" ht="15.5" spans="2:6">
+      <c r="B36" s="13">
+        <v>20035</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" ht="15.5" spans="2:6">
+      <c r="B37" s="11">
+        <v>20036</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" ht="15.5" spans="2:6">
+      <c r="B38" s="13">
+        <v>20037</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" ht="15.5" spans="2:6">
+      <c r="B39" s="11">
+        <v>20038</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" ht="15.5" spans="2:6">
+      <c r="B40" s="13">
+        <v>20039</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" ht="15.5" spans="2:6">
+      <c r="B41" s="11">
+        <v>20040</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" ht="15.5" spans="2:6">
+      <c r="B42" s="13">
+        <v>20041</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" ht="15.5" spans="2:6">
+      <c r="B43" s="11">
+        <v>20042</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" ht="15.5" spans="2:6">
+      <c r="B44" s="13">
+        <v>20043</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" ht="15.5" spans="2:6">
+      <c r="B45" s="11">
+        <v>20044</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" ht="15.5" spans="2:6">
+      <c r="B46" s="13">
+        <v>20045</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" ht="15.5" spans="2:6">
+      <c r="B47" s="11">
+        <v>20046</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" ht="15.5" spans="2:6">
+      <c r="B48" s="13">
+        <v>20047</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" ht="15.5" spans="2:6">
+      <c r="B49" s="11">
+        <v>20048</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" ht="15.5" spans="2:6">
+      <c r="B50" s="13">
+        <v>20049</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" ht="15.5" spans="2:6">
+      <c r="B51" s="11">
+        <v>20050</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" ht="15.5" spans="2:6">
+      <c r="B52" s="13">
+        <v>20051</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" ht="15.5" spans="2:6">
+      <c r="B53" s="11">
+        <v>20052</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" ht="15.5" spans="2:6">
+      <c r="B54" s="13">
+        <v>20053</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" ht="15.5" spans="2:6">
+      <c r="B55" s="11">
+        <v>20054</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" ht="15.5" spans="2:6">
+      <c r="B56" s="13">
+        <v>20055</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" ht="15.5" spans="2:6">
+      <c r="B57" s="11">
+        <v>20056</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" ht="15.5" spans="2:6">
+      <c r="B58" s="13">
+        <v>20057</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" ht="15.5" spans="2:6">
+      <c r="B59" s="11">
+        <v>20058</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" ht="15.5" spans="2:6">
+      <c r="B60" s="13">
+        <v>20059</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" ht="15.5" spans="2:6">
+      <c r="B61" s="11">
+        <v>20060</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" ht="15.5" spans="2:6">
+      <c r="B62" s="13">
+        <v>20061</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" ht="15.5" spans="2:6">
+      <c r="B63" s="11">
+        <v>20062</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" ht="15.5" spans="2:6">
+      <c r="B64" s="13">
+        <v>20063</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" ht="15.5" spans="2:6">
+      <c r="B65" s="11">
+        <v>20064</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" ht="15.5" spans="2:6">
+      <c r="B66" s="13">
+        <v>20065</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" ht="15.5" spans="2:6">
+      <c r="B67" s="11">
+        <v>20066</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" ht="15.5" spans="2:6">
+      <c r="B68" s="13">
+        <v>20067</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" ht="15.5" spans="2:6">
+      <c r="B69" s="11">
+        <v>20068</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" ht="15.5" spans="2:6">
+      <c r="B70" s="13">
+        <v>20069</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" ht="15.5" spans="2:6">
+      <c r="B71" s="11">
+        <v>20070</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" ht="15.5" spans="2:6">
+      <c r="B72" s="13">
+        <v>20071</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" ht="15.5" spans="2:6">
+      <c r="B73" s="11">
+        <v>20072</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" ht="15.5" spans="2:6">
+      <c r="B74" s="13">
+        <v>20073</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" ht="15.5" spans="2:6">
+      <c r="B75" s="11">
+        <v>20074</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" ht="15.5" spans="2:6">
+      <c r="B76" s="13">
+        <v>20075</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" ht="15.5" spans="2:6">
+      <c r="B77" s="11">
+        <v>20076</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" ht="15.5" spans="2:6">
+      <c r="B78" s="13">
+        <v>20077</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" s="4"/>
+    </row>
+    <row r="79" ht="15.5" spans="2:6">
+      <c r="B79" s="11">
+        <v>20078</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" ht="15.5" spans="2:6">
+      <c r="B80" s="13">
+        <v>20079</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" s="4"/>
+    </row>
+    <row r="81" ht="15.5" spans="2:6">
+      <c r="B81" s="11">
+        <v>20080</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81" s="4"/>
+    </row>
+    <row r="82" ht="15.5" spans="2:6">
+      <c r="B82" s="13">
+        <v>20081</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" s="4"/>
+    </row>
+    <row r="83" ht="15.5" spans="2:6">
+      <c r="B83" s="11">
+        <v>20082</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" s="4"/>
+    </row>
+    <row r="84" ht="15.5" spans="2:6">
+      <c r="B84" s="13">
+        <v>20083</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" s="4"/>
+    </row>
+    <row r="85" ht="15.5" spans="2:6">
+      <c r="B85" s="11">
+        <v>20084</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F85" s="4"/>
+    </row>
+    <row r="86" ht="15.5" spans="2:6">
+      <c r="B86" s="13">
+        <v>20085</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86" s="4"/>
+    </row>
+    <row r="87" ht="15.5" spans="2:6">
+      <c r="B87" s="11">
+        <v>20086</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F87" s="4"/>
+    </row>
+    <row r="88" ht="15.5" spans="2:6">
+      <c r="B88" s="13">
+        <v>20087</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F88" s="4"/>
+    </row>
+    <row r="89" ht="15.5" spans="2:6">
+      <c r="B89" s="11">
+        <v>20088</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89" s="4"/>
+    </row>
+    <row r="90" ht="15.5" spans="2:6">
+      <c r="B90" s="13">
+        <v>20089</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" s="4"/>
+    </row>
+    <row r="91" ht="15.5" spans="2:6">
+      <c r="B91" s="11">
+        <v>20090</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F91" s="4"/>
+    </row>
+    <row r="92" ht="15.5" spans="2:6">
+      <c r="B92" s="13">
+        <v>20091</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F92" s="4"/>
+    </row>
+    <row r="93" ht="15.5" spans="2:6">
+      <c r="B93" s="11">
+        <v>20092</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" s="4"/>
+    </row>
+    <row r="94" ht="15.5" spans="2:6">
+      <c r="B94" s="13">
+        <v>20093</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F94" s="4"/>
+    </row>
+    <row r="95" ht="15.5" spans="2:6">
+      <c r="B95" s="11">
+        <v>20094</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F95" s="4"/>
+    </row>
+    <row r="96" ht="15.5" spans="2:6">
+      <c r="B96" s="13">
+        <v>20095</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F96" s="4"/>
+    </row>
+    <row r="97" ht="15.5" spans="2:6">
+      <c r="B97" s="11">
+        <v>20096</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F97" s="4"/>
+    </row>
+    <row r="98" ht="15.5" spans="2:6">
+      <c r="B98" s="13">
+        <v>20097</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F98" s="4"/>
+    </row>
+    <row r="99" ht="15.5" spans="2:6">
+      <c r="B99" s="11">
+        <v>20098</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F99" s="4"/>
+    </row>
+    <row r="100" ht="15.5" spans="2:6">
+      <c r="B100" s="13">
+        <v>20099</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F100" s="4"/>
+    </row>
+    <row r="101" ht="15.5" spans="2:6">
+      <c r="B101" s="11">
+        <v>20100</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F101" s="4"/>
+    </row>
+    <row r="102" ht="15.5" spans="2:6">
+      <c r="B102" s="13">
+        <v>20101</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F102" s="4"/>
+    </row>
+    <row r="103" ht="15.5" spans="2:6">
+      <c r="B103" s="11">
+        <v>20102</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F103" s="4"/>
+    </row>
+    <row r="104" ht="15.5" spans="2:6">
+      <c r="B104" s="13">
+        <v>20103</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F104" s="4"/>
+    </row>
+    <row r="105" ht="15.5" spans="2:6">
+      <c r="B105" s="11">
+        <v>20104</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F105" s="4"/>
+    </row>
+    <row r="106" ht="15.5" spans="2:6">
+      <c r="B106" s="13">
+        <v>20105</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F106" s="4"/>
+    </row>
+    <row r="107" ht="15.5" spans="2:6">
+      <c r="B107" s="11">
+        <v>20106</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F107" s="4"/>
+    </row>
+    <row r="108" ht="15.5" spans="2:6">
+      <c r="B108" s="13">
+        <v>20107</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F108" s="4"/>
+    </row>
+    <row r="109" ht="15.5" spans="2:6">
+      <c r="B109" s="11">
+        <v>20108</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F109" s="4"/>
+    </row>
+    <row r="110" ht="15.5" spans="2:6">
+      <c r="B110" s="13">
+        <v>20109</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F110" s="4"/>
+    </row>
+    <row r="111" ht="15.5" spans="2:6">
+      <c r="B111" s="11">
+        <v>20110</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F111" s="4"/>
+    </row>
+    <row r="112" ht="15.5" spans="2:6">
+      <c r="B112" s="13">
+        <v>20111</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F112" s="4"/>
+    </row>
+    <row r="113" ht="15.5" spans="2:6">
+      <c r="B113" s="11">
+        <v>20112</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F113" s="4"/>
+    </row>
+    <row r="114" ht="15.5" spans="2:6">
+      <c r="B114" s="13">
+        <v>20113</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F114" s="4"/>
+    </row>
+    <row r="115" ht="15.5" spans="2:6">
+      <c r="B115" s="11">
+        <v>20114</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F115" s="4"/>
+    </row>
+    <row r="116" ht="15.5" spans="2:6">
+      <c r="B116" s="13">
+        <v>20115</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F116" s="4"/>
+    </row>
+    <row r="117" ht="15.5" spans="2:6">
+      <c r="B117" s="11">
+        <v>20116</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F117" s="4"/>
+    </row>
+    <row r="118" ht="15.5" spans="2:6">
+      <c r="B118" s="13">
+        <v>20117</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F118" s="4"/>
+    </row>
+    <row r="119" ht="15.5" spans="2:6">
+      <c r="B119" s="11">
+        <v>20118</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F119" s="4"/>
+    </row>
+    <row r="120" ht="15.5" spans="2:6">
+      <c r="B120" s="13">
+        <v>20119</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F120" s="4"/>
+    </row>
+    <row r="121" ht="15.5" spans="2:6">
+      <c r="B121" s="11">
+        <v>20120</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F121" s="4"/>
+    </row>
+    <row r="122" ht="15.5" spans="2:6">
+      <c r="B122" s="13">
+        <v>20121</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F122" s="4"/>
+    </row>
+    <row r="123" ht="15.5" spans="2:6">
+      <c r="B123" s="11">
+        <v>20122</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F123" s="4"/>
+    </row>
+    <row r="124" ht="15.5" spans="2:6">
+      <c r="B124" s="13">
+        <v>20123</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F124" s="4"/>
+    </row>
+    <row r="125" ht="15.5" spans="2:6">
+      <c r="B125" s="11">
+        <v>20124</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F125" s="4"/>
+    </row>
+    <row r="126" ht="15.5" spans="2:6">
+      <c r="B126" s="13">
+        <v>20125</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F126" s="4"/>
+    </row>
+    <row r="127" ht="15.5" spans="2:6">
+      <c r="B127" s="11">
+        <v>20126</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F127" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C26" r:id="rId1" display="邪影芳灵符石" tooltip="http://www.baidu.com/link?url=l12dmBg3NEtasdYj_1eirbwFNLBePPbwIYwDp3ReKv__8V24U20rZWzU4HgghwRg0UjfDf_XvTl5hIaoArvShq"/>
+    <hyperlink ref="C27" r:id="rId2" display="破晓辰星符石" tooltip="http://www.baidu.com/link?url=vaEqnYVBkmW6puGC7wnDVm08jlaH8cZ0B0okAfCm3f4XGYFiPcPlIHddQhqbW8F7ar9ZAGjbHTqIbVyCYfXsla"/>
+    <hyperlink ref="C33" r:id="rId3" display="卓尔游侠符石" tooltip="http://www.baidu.com/link?url=I22yPUlo-PKmBww8jRjXkG7HTxJD8EvR23L-N1kCMPaMHpCMpAtBvl-YTUIygF1108oyABEEAVe71ELg6bnM0a"/>
+    <hyperlink ref="C42" r:id="rId4" display="天涯墨客符石" tooltip="http://www.baidu.com/link?url=oeNNFnvdtAHgdInZKgObdPaENoGBCwSK2V4TuIk3cKPDAWLqWSJr00h_y7KK8UwVjGM5GQemOWGiMBvxG4UaOq"/>
+    <hyperlink ref="C76" r:id="rId5" display="神谕者符石" tooltip="http://www.baidu.com/link?url=GUSqsirNIFse6jcyPMJ-scCyfsTfa3qsbf4tGD4ATQ2d44imbZhfmi6Y626qX3sw"/>
+    <hyperlink ref="C99" r:id="rId6" display="电炎绝手符石" tooltip="http://www.baidu.com/link?url=yqgChDdO7NcZRZvBYFJAeHP5IKhoZXtab_ZZEP5nJrf-i556n7JHzy8iIEQHnPHk"/>
+    <hyperlink ref="C102" r:id="rId7" display="裂魂人符石" tooltip="http://www.baidu.com/link?url=sPSrX7YpVeGO2go1fz05Dgpg2CvLKfO5ktD5uv5LxwOZG7cQL3R9NKm6mwtA17xJk9l-Uaw0Jsv5zO_v4dnxjq"/>
+    <hyperlink ref="C119" r:id="rId8" display="维萨吉符石" tooltip="http://www.baidu.com/link?url=b54vWxoxFCKV9kf4pvjVLyXVxnpCs5FgPT__PMBtwo0xRUe9fMVWNeRvHD8pYGxp"/>
+    <hyperlink ref="C121" r:id="rId9" display="术士符石" tooltip="http://www.baidu.com/link?url=RjGITYZHTKoyM7GsdndDIZTiMH8hWWpySGS4ODNOAaKsw3Q9PmTZfq3dZ8xBYfooZo_x5FaNdk81XaYHDMGVq2LoDKwrC_Hi6UfgLfl9hfa"/>
+    <hyperlink ref="C122" r:id="rId10" display="编织者符石" tooltip="http://www.baidu.com/link?url=8m5k2RsZExjbuFFM8XNcafXgauahVfHML8bqp3l4hdLtDJs0rwsxlY23iiaxHYPr"/>
+    <hyperlink ref="C125" r:id="rId11" display="艾欧符石" tooltip="http://www.baidu.com/link?url=N0EB_y3AiV_LvbrP4j-H1H5YFNq9kRJuvnwqedrel7WXbJHYPNLQxdP5xyPFlshD"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
